--- a/03_webapp/docs/09_データベーステーブル設計書.xlsx
+++ b/03_webapp/docs/09_データベーステーブル設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooshima\Develop\training_java\03_webapp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB59E4B-09DE-4229-BBC9-87B94E3CBE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3671EA9-F1E9-43D5-A932-3108C18A9BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40410" yWindow="1455" windowWidth="32220" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="4230" windowWidth="25260" windowHeight="14490" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="17" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル一覧!$A$1:$E$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">加入者情報◆T_KANYU!$A$1:$K$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">加入者情報◆T_KANYU!$A$1:$K$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">適用料金情報◆T_APPLIED_CHARGE!$A$1:$K$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">料金情報◆T_CHARGE!$A$1:$K$19</definedName>
   </definedNames>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="105">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -260,16 +260,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>加入者名</t>
-    <rPh sb="0" eb="3">
-      <t>カニュウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -646,6 +636,33 @@
   </si>
   <si>
     <t>retired_at</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meil</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mail</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1393,8 +1410,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9784BA0E-2099-43C1-AC80-C779EC75BD93}" name="T_MEMBER" displayName="T_MEMBER" ref="A7:K15" totalsRowShown="0" tableBorderDxfId="74">
-  <autoFilter ref="A7:K15" xr:uid="{9784BA0E-2099-43C1-AC80-C779EC75BD93}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9784BA0E-2099-43C1-AC80-C779EC75BD93}" name="T_MEMBER" displayName="T_MEMBER" ref="A7:K16" totalsRowShown="0" tableBorderDxfId="74">
+  <autoFilter ref="A7:K16" xr:uid="{9784BA0E-2099-43C1-AC80-C779EC75BD93}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{468B2965-8064-44F9-B580-D83658E343A8}" name="No."/>
     <tableColumn id="2" xr3:uid="{A5408688-02A7-43A8-9071-944E5E29264B}" name="論理列名"/>
@@ -1453,8 +1470,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{714A0335-9CB6-4B7B-9BFB-882CF9584098}" name="T_BILLING_DATA" displayName="T_BILLING_DATA" ref="A7:K16" tableBorderDxfId="53">
-  <autoFilter ref="A7:K16" xr:uid="{714A0335-9CB6-4B7B-9BFB-882CF9584098}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{714A0335-9CB6-4B7B-9BFB-882CF9584098}" name="T_BILLING_DATA" displayName="T_BILLING_DATA" ref="A7:K17" tableBorderDxfId="53">
+  <autoFilter ref="A7:K17" xr:uid="{714A0335-9CB6-4B7B-9BFB-882CF9584098}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F2EC9DE1-D8E3-4049-ABFB-690D189E08F7}" name="No." totalsRowLabel="集計" totalsRowDxfId="52"/>
     <tableColumn id="2" xr3:uid="{EB15E45F-23FD-4888-856F-F013986693EA}" name="論理列名" totalsRowDxfId="51"/>
@@ -1903,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8951FC9-73F5-4C45-B761-D6358E222D54}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -1988,7 +2005,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8">
-        <v>44999</v>
+        <v>45015</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2054,23 +2071,25 @@
         <v>31</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="1">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
@@ -2078,23 +2097,25 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
@@ -2109,15 +2130,17 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>128</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>31</v>
@@ -2131,17 +2154,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2151,19 +2176,17 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2173,13 +2196,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2195,13 +2218,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2211,6 +2234,28 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2358,10 +2403,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -2382,13 +2427,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1">
         <v>64</v>
@@ -2406,13 +2451,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
@@ -2432,13 +2477,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2454,13 +2499,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2476,13 +2521,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2508,7 +2553,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2545,7 +2590,7 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2665,10 +2710,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -2691,13 +2736,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2713,13 +2758,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2733,13 +2778,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2755,13 +2800,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2784,10 +2829,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B379170-9F89-411B-AB91-1596988453DD}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2883,34 +2928,34 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" t="s">
         <v>68</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2918,13 +2963,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2968,15 +3013,17 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E10" s="1">
+        <v>256</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
         <v>31</v>
@@ -2987,18 +3034,20 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>32</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>31</v>
@@ -3009,18 +3058,20 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E12" s="1">
+        <v>128</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>31</v>
@@ -3031,51 +3082,44 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>31</v>
@@ -3083,22 +3127,29 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>31</v>
       </c>
@@ -3108,16 +3159,16 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3128,13 +3179,35 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="5:10">
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3188,7 +3261,7 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3247,34 +3320,34 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
         <v>68</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3282,13 +3355,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3332,13 +3405,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3358,13 +3431,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -3384,13 +3457,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3406,13 +3479,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -3428,13 +3501,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3450,13 +3523,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3489,7 +3562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9719C2B6-2875-40CF-8057-40236094578F}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3527,7 +3600,7 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3542,7 +3615,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3586,34 +3659,34 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
         <v>68</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3621,13 +3694,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
         <v>85</v>
       </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1">
         <v>64</v>
@@ -3647,13 +3720,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1">
         <v>128</v>
@@ -3666,7 +3739,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3674,13 +3747,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3696,13 +3769,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -3718,13 +3791,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3740,13 +3813,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -3767,30 +3840,30 @@
     </row>
     <row r="15" spans="1:11">
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/03_webapp/docs/09_データベーステーブル設計書.xlsx
+++ b/03_webapp/docs/09_データベーステーブル設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooshima\Develop\training_java\03_webapp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3671EA9-F1E9-43D5-A932-3108C18A9BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7457BF4-6CAA-4946-BDF9-D82DF6F93059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="4230" windowWidth="25260" windowHeight="14490" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="930" windowWidth="26625" windowHeight="18555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="17" r:id="rId1"/>
@@ -21,12 +21,6 @@
     <sheet name="請求明細データ◆T_BILLING_DETAIL_DATA" sheetId="21" r:id="rId6"/>
     <sheet name="システムアカウント情報◆T_USER" sheetId="23" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル一覧!$A$1:$E$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">加入者情報◆T_KANYU!$A$1:$K$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">適用料金情報◆T_APPLIED_CHARGE!$A$1:$K$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">料金情報◆T_CHARGE!$A$1:$K$19</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1794,9 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183F5E51-5719-448C-8798-97442D9B85A1}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -1922,9 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8951FC9-73F5-4C45-B761-D6358E222D54}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2271,9 +2261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D740C00A-D494-463E-8A29-F4ACFDABCB63}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2552,9 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CDC055-D23C-4A76-B769-437AC6D6359C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2832,7 +2818,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -3224,7 +3210,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -3562,9 +3548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9719C2B6-2875-40CF-8057-40236094578F}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
